--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,20 +465,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>needle_rating_previous</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>previous_test</t>
         </is>
@@ -507,12 +512,13 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>-325</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>-325</v>
       </c>
+      <c r="K2" t="n">
+        <v>-325</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -537,12 +543,13 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>-295</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>-295</v>
       </c>
+      <c r="K3" t="n">
+        <v>-295</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,12 +574,13 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>-320</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>-320</v>
       </c>
+      <c r="K4" t="n">
+        <v>-320</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -597,12 +605,13 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>-313</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>-313</v>
       </c>
+      <c r="K5" t="n">
+        <v>-313</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -627,12 +636,13 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>-298</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>-298</v>
       </c>
+      <c r="K6" t="n">
+        <v>-298</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -657,12 +667,13 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>-290</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>-290</v>
       </c>
+      <c r="K7" t="n">
+        <v>-290</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -687,12 +698,13 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>-272</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>-272</v>
       </c>
+      <c r="K8" t="n">
+        <v>-272</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,12 +729,13 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>-279</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>-279</v>
       </c>
+      <c r="K9" t="n">
+        <v>-279</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -747,12 +760,13 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>-292</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>-292</v>
       </c>
+      <c r="K10" t="n">
+        <v>-292</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,12 +791,13 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>-293</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>-293</v>
       </c>
+      <c r="K11" t="n">
+        <v>-293</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -807,10 +822,11 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>-301</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>-301</v>
       </c>
     </row>
@@ -819,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>46013</v>
@@ -836,15 +852,18 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>-292</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>-292</v>
       </c>
     </row>
@@ -853,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>46010</v>
@@ -870,17 +889,20 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>-289</v>
       </c>
+      <c r="K14" t="n">
+        <v>-289</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -905,10 +927,11 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>-282</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>-282</v>
       </c>
     </row>
@@ -917,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>46008</v>
@@ -934,17 +957,20 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
         <v>11</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>-281</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>-281</v>
       </c>
+      <c r="K16" t="n">
+        <v>-281</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -969,10 +995,11 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>-273</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>-273</v>
       </c>
     </row>
@@ -981,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>46006</v>
@@ -998,17 +1025,20 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>-266</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>-266</v>
       </c>
+      <c r="K18" t="n">
+        <v>-266</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1033,10 +1063,11 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>-280</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>-280</v>
       </c>
     </row>
@@ -1045,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>46002</v>
@@ -1062,13 +1093,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>-281</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>-281</v>
       </c>
     </row>
@@ -1077,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>46001</v>
@@ -1094,13 +1128,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>-277</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>-277</v>
       </c>
     </row>
@@ -1109,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>46000</v>
@@ -1126,15 +1163,18 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
         <v>13</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-269</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>-269</v>
       </c>
     </row>
@@ -1143,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45999</v>
@@ -1160,15 +1200,18 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
         <v>14</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-260</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>-260</v>
       </c>
     </row>
@@ -1177,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45996</v>
@@ -1194,15 +1237,18 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
         <v>15</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-248</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>-248</v>
       </c>
     </row>
@@ -1211,7 +1257,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45995</v>
@@ -1228,15 +1274,18 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
         <v>16</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-244</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>-244</v>
       </c>
     </row>
@@ -1245,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>45994</v>
@@ -1262,15 +1311,18 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
         <v>17</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-239</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>-239</v>
       </c>
     </row>
@@ -1279,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45993</v>
@@ -1296,15 +1348,18 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
         <v>18</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>-240</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>-240</v>
       </c>
     </row>
@@ -1313,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45992</v>
@@ -1330,15 +1385,18 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
         <v>19</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-231</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-231</v>
       </c>
     </row>
@@ -1347,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45987</v>
@@ -1364,15 +1422,18 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
         <v>20</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-227</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>-227</v>
       </c>
     </row>
@@ -1381,7 +1442,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45986</v>
@@ -1398,13 +1459,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>-228</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>-228</v>
       </c>
     </row>
@@ -1413,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45985</v>
@@ -1430,15 +1494,18 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
         <v>21</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>-227</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>-227</v>
       </c>
     </row>
@@ -1447,7 +1514,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45982</v>
@@ -1464,15 +1531,18 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
         <v>22</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-228</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>-228</v>
       </c>
     </row>
@@ -1481,7 +1551,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45981</v>
@@ -1498,15 +1568,18 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
         <v>23</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>-228</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>-228</v>
       </c>
     </row>
@@ -1515,7 +1588,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>45980</v>
@@ -1532,15 +1605,18 @@
         </is>
       </c>
       <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
         <v>24</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>-235</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>-229</v>
       </c>
     </row>
@@ -1549,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45979</v>
@@ -1566,15 +1642,18 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
         <v>25</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>-229</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>-229</v>
       </c>
     </row>
@@ -1583,7 +1662,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>45975</v>
@@ -1600,15 +1679,18 @@
         </is>
       </c>
       <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
         <v>26</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>-234</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>-234</v>
       </c>
     </row>
@@ -1617,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>45974</v>
@@ -1634,15 +1716,18 @@
         </is>
       </c>
       <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
         <v>27</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>-233</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>-233</v>
       </c>
     </row>
@@ -1651,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>45973</v>
@@ -1668,15 +1753,18 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
         <v>28</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>-235</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>-235</v>
       </c>
     </row>
@@ -1685,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>45972</v>
@@ -1702,15 +1790,18 @@
         </is>
       </c>
       <c r="G39" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
         <v>29</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>-226</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>-226</v>
       </c>
     </row>
@@ -1719,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>45968</v>
@@ -1736,13 +1827,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>-233</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>-233</v>
       </c>
     </row>
@@ -1751,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>45967</v>
@@ -1768,13 +1862,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>-231</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>-231</v>
       </c>
     </row>
@@ -1783,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>45966</v>
@@ -1800,15 +1897,18 @@
         </is>
       </c>
       <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
         <v>173</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>-274</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>-274</v>
       </c>
     </row>
@@ -1817,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>45965</v>
@@ -1834,15 +1934,18 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>41</v>
+      </c>
+      <c r="H43" t="n">
         <v>30</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>-267</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>-267</v>
       </c>
     </row>
@@ -1851,7 +1954,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>45964</v>
@@ -1868,15 +1971,18 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
         <v>31</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>-262</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>-262</v>
       </c>
     </row>
@@ -1885,7 +1991,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>45961</v>
@@ -1902,15 +2008,18 @@
         </is>
       </c>
       <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="H45" t="n">
         <v>32</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>-263</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>-263</v>
       </c>
     </row>
@@ -1919,7 +2028,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>45960</v>
@@ -1936,15 +2045,18 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>44</v>
+      </c>
+      <c r="H46" t="n">
         <v>174</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>-256</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>-256</v>
       </c>
     </row>
@@ -1953,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>45959</v>
@@ -1970,15 +2082,18 @@
         </is>
       </c>
       <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
         <v>175</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>-241</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>-241</v>
       </c>
     </row>
@@ -1987,7 +2102,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>45958</v>
@@ -2004,15 +2119,18 @@
         </is>
       </c>
       <c r="G48" t="n">
+        <v>46</v>
+      </c>
+      <c r="H48" t="n">
         <v>176</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>-234</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>-234</v>
       </c>
     </row>
@@ -2021,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>45957</v>
@@ -2038,15 +2156,18 @@
         </is>
       </c>
       <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="n">
         <v>33</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>-227</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>-227</v>
       </c>
     </row>
@@ -2055,7 +2176,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>45954</v>
@@ -2072,15 +2193,18 @@
         </is>
       </c>
       <c r="G50" t="n">
+        <v>48</v>
+      </c>
+      <c r="H50" t="n">
         <v>177</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>-225</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>-225</v>
       </c>
     </row>
@@ -2089,7 +2213,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>45953</v>
@@ -2106,15 +2230,18 @@
         </is>
       </c>
       <c r="G51" t="n">
+        <v>49</v>
+      </c>
+      <c r="H51" t="n">
         <v>34</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>-223</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>-223</v>
       </c>
     </row>
@@ -2123,7 +2250,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>45952</v>
@@ -2140,15 +2267,18 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
         <v>35</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>-217</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>-217</v>
       </c>
     </row>
@@ -2157,7 +2287,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45951</v>
@@ -2174,15 +2304,18 @@
         </is>
       </c>
       <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
         <v>36</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>-211</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>-211</v>
       </c>
     </row>
@@ -2191,7 +2324,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>45950</v>
@@ -2208,15 +2341,18 @@
         </is>
       </c>
       <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" t="n">
         <v>37</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>-209</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>-209</v>
       </c>
     </row>
@@ -2225,7 +2361,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>45947</v>
@@ -2242,15 +2378,18 @@
         </is>
       </c>
       <c r="G55" t="n">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n">
         <v>38</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>-207</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>-207</v>
       </c>
     </row>
@@ -2259,7 +2398,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45946</v>
@@ -2276,15 +2415,18 @@
         </is>
       </c>
       <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
         <v>39</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>-200</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>-200</v>
       </c>
     </row>
@@ -2293,7 +2435,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45945</v>
@@ -2310,15 +2452,18 @@
         </is>
       </c>
       <c r="G57" t="n">
+        <v>55</v>
+      </c>
+      <c r="H57" t="n">
         <v>40</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>-189</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>-189</v>
       </c>
     </row>
@@ -2327,7 +2472,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45944</v>
@@ -2344,15 +2489,18 @@
         </is>
       </c>
       <c r="G58" t="n">
+        <v>56</v>
+      </c>
+      <c r="H58" t="n">
         <v>41</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>-186</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>-186</v>
       </c>
     </row>
@@ -2361,7 +2509,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>45938</v>
@@ -2378,15 +2526,18 @@
         </is>
       </c>
       <c r="G59" t="n">
+        <v>57</v>
+      </c>
+      <c r="H59" t="n">
         <v>42</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>-180</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>-180</v>
       </c>
     </row>
@@ -2395,7 +2546,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45937</v>
@@ -2412,15 +2563,18 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>58</v>
+      </c>
+      <c r="H60" t="n">
         <v>43</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>-176</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>-176</v>
       </c>
     </row>
@@ -2429,7 +2583,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45936</v>
@@ -2446,15 +2600,18 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>59</v>
+      </c>
+      <c r="H61" t="n">
         <v>44</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>-176</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>-176</v>
       </c>
     </row>
@@ -2463,7 +2620,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45933</v>
@@ -2480,15 +2637,18 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
         <v>178</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>-170</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>-170</v>
       </c>
     </row>
@@ -2497,7 +2657,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45932</v>
@@ -2514,15 +2674,18 @@
         </is>
       </c>
       <c r="G63" t="n">
+        <v>61</v>
+      </c>
+      <c r="H63" t="n">
         <v>45</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>-166</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>-166</v>
       </c>
     </row>
@@ -2531,7 +2694,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>45931</v>
@@ -2548,15 +2711,18 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>62</v>
+      </c>
+      <c r="H64" t="n">
         <v>46</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>-154</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>-154</v>
       </c>
     </row>
@@ -2565,7 +2731,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>45930</v>
@@ -2582,15 +2748,18 @@
         </is>
       </c>
       <c r="G65" t="n">
+        <v>63</v>
+      </c>
+      <c r="H65" t="n">
         <v>47</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>-145</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>-145</v>
       </c>
     </row>
@@ -2599,7 +2768,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>45929</v>
@@ -2616,15 +2785,18 @@
         </is>
       </c>
       <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
         <v>179</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>-140</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>-140</v>
       </c>
     </row>
@@ -2633,7 +2805,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>45926</v>
@@ -2650,15 +2822,18 @@
         </is>
       </c>
       <c r="G67" t="n">
+        <v>65</v>
+      </c>
+      <c r="H67" t="n">
         <v>180</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>-139</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>-139</v>
       </c>
     </row>
@@ -2667,7 +2842,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>45925</v>
@@ -2684,15 +2859,18 @@
         </is>
       </c>
       <c r="G68" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" t="n">
         <v>181</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>-131</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>-131</v>
       </c>
     </row>
@@ -2701,7 +2879,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>45924</v>
@@ -2718,15 +2896,18 @@
         </is>
       </c>
       <c r="G69" t="n">
+        <v>67</v>
+      </c>
+      <c r="H69" t="n">
         <v>182</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>-133</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>-133</v>
       </c>
     </row>
@@ -2735,7 +2916,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>45923</v>
@@ -2752,15 +2933,18 @@
         </is>
       </c>
       <c r="G70" t="n">
+        <v>68</v>
+      </c>
+      <c r="H70" t="n">
         <v>183</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>-112</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -2769,7 +2953,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>45922</v>
@@ -2786,15 +2970,18 @@
         </is>
       </c>
       <c r="G71" t="n">
+        <v>69</v>
+      </c>
+      <c r="H71" t="n">
         <v>48</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>-105</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>-105</v>
       </c>
     </row>
@@ -2803,7 +2990,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>45919</v>
@@ -2820,15 +3007,18 @@
         </is>
       </c>
       <c r="G72" t="n">
+        <v>70</v>
+      </c>
+      <c r="H72" t="n">
         <v>49</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>-96</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>-96</v>
       </c>
     </row>
@@ -2837,7 +3027,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>45918</v>
@@ -2854,15 +3044,18 @@
         </is>
       </c>
       <c r="G73" t="n">
+        <v>71</v>
+      </c>
+      <c r="H73" t="n">
         <v>184</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>-92</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>-92</v>
       </c>
     </row>
@@ -2871,7 +3064,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>45917</v>
@@ -2888,15 +3081,18 @@
         </is>
       </c>
       <c r="G74" t="n">
+        <v>72</v>
+      </c>
+      <c r="H74" t="n">
         <v>185</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>-87</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>-87</v>
       </c>
     </row>
@@ -2905,7 +3101,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>45916</v>
@@ -2922,15 +3118,18 @@
         </is>
       </c>
       <c r="G75" t="n">
+        <v>73</v>
+      </c>
+      <c r="H75" t="n">
         <v>186</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>-83</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>-83</v>
       </c>
     </row>
@@ -2939,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>45915</v>
@@ -2956,15 +3155,18 @@
         </is>
       </c>
       <c r="G76" t="n">
+        <v>74</v>
+      </c>
+      <c r="H76" t="n">
         <v>50</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>-76</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>-76</v>
       </c>
     </row>
@@ -2973,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>45912</v>
@@ -2990,15 +3192,18 @@
         </is>
       </c>
       <c r="G77" t="n">
+        <v>75</v>
+      </c>
+      <c r="H77" t="n">
         <v>187</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>-70</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>-70</v>
       </c>
     </row>
@@ -3007,7 +3212,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>45911</v>
@@ -3024,15 +3229,18 @@
         </is>
       </c>
       <c r="G78" t="n">
+        <v>76</v>
+      </c>
+      <c r="H78" t="n">
         <v>51</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>-62</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>-62</v>
       </c>
     </row>
@@ -3041,7 +3249,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>45910</v>
@@ -3058,15 +3266,18 @@
         </is>
       </c>
       <c r="G79" t="n">
+        <v>77</v>
+      </c>
+      <c r="H79" t="n">
         <v>52</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>-61</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -3075,7 +3286,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>45909</v>
@@ -3092,15 +3303,18 @@
         </is>
       </c>
       <c r="G80" t="n">
+        <v>78</v>
+      </c>
+      <c r="H80" t="n">
         <v>53</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>-139</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>-139</v>
       </c>
     </row>
@@ -3109,7 +3323,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>45908</v>
@@ -3126,15 +3340,18 @@
         </is>
       </c>
       <c r="G81" t="n">
+        <v>79</v>
+      </c>
+      <c r="H81" t="n">
         <v>54</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>-136</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>-136</v>
       </c>
     </row>
@@ -3143,7 +3360,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>45905</v>
@@ -3160,15 +3377,18 @@
         </is>
       </c>
       <c r="G82" t="n">
+        <v>80</v>
+      </c>
+      <c r="H82" t="n">
         <v>55</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>-135</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>-135</v>
       </c>
     </row>
@@ -3177,7 +3397,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>45904</v>
@@ -3194,15 +3414,18 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>81</v>
+      </c>
+      <c r="H83" t="n">
         <v>56</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>-134</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>-137</v>
       </c>
     </row>
@@ -3211,7 +3434,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>45902</v>
@@ -3228,15 +3451,18 @@
         </is>
       </c>
       <c r="G84" t="n">
+        <v>82</v>
+      </c>
+      <c r="H84" t="n">
         <v>57</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>-134</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>-136</v>
       </c>
     </row>
@@ -3245,7 +3471,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>45896</v>
@@ -3262,15 +3488,18 @@
         </is>
       </c>
       <c r="G85" t="n">
+        <v>83</v>
+      </c>
+      <c r="H85" t="n">
         <v>58</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>-134</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>-134</v>
       </c>
     </row>
@@ -3279,7 +3508,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>45895</v>
@@ -3296,15 +3525,18 @@
         </is>
       </c>
       <c r="G86" t="n">
+        <v>84</v>
+      </c>
+      <c r="H86" t="n">
         <v>188</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>-133</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>-133</v>
       </c>
     </row>
@@ -3313,7 +3545,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>45894</v>
@@ -3330,15 +3562,18 @@
         </is>
       </c>
       <c r="G87" t="n">
+        <v>85</v>
+      </c>
+      <c r="H87" t="n">
         <v>189</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>-129</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>-129</v>
       </c>
     </row>
@@ -3347,7 +3582,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>45891</v>
@@ -3364,15 +3599,18 @@
         </is>
       </c>
       <c r="G88" t="n">
+        <v>86</v>
+      </c>
+      <c r="H88" t="n">
         <v>59</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>-127</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>-127</v>
       </c>
     </row>
@@ -3381,7 +3619,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>45890</v>
@@ -3398,15 +3636,18 @@
         </is>
       </c>
       <c r="G89" t="n">
+        <v>87</v>
+      </c>
+      <c r="H89" t="n">
         <v>60</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>-121</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>-121</v>
       </c>
     </row>
@@ -3415,7 +3656,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>45889</v>
@@ -3432,15 +3673,18 @@
         </is>
       </c>
       <c r="G90" t="n">
+        <v>88</v>
+      </c>
+      <c r="H90" t="n">
         <v>61</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>-118</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -3449,7 +3693,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>45888</v>
@@ -3466,15 +3710,18 @@
         </is>
       </c>
       <c r="G91" t="n">
+        <v>89</v>
+      </c>
+      <c r="H91" t="n">
         <v>62</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>-114</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>-114</v>
       </c>
     </row>
@@ -3483,7 +3730,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>45887</v>
@@ -3500,15 +3747,18 @@
         </is>
       </c>
       <c r="G92" t="n">
+        <v>90</v>
+      </c>
+      <c r="H92" t="n">
         <v>63</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>-112</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -3517,7 +3767,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>45883</v>
@@ -3534,15 +3784,18 @@
         </is>
       </c>
       <c r="G93" t="n">
+        <v>91</v>
+      </c>
+      <c r="H93" t="n">
         <v>64</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>-103</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>-103</v>
       </c>
     </row>
@@ -3551,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>45882</v>
@@ -3568,15 +3821,18 @@
         </is>
       </c>
       <c r="G94" t="n">
+        <v>92</v>
+      </c>
+      <c r="H94" t="n">
         <v>65</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>-98</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>-98</v>
       </c>
     </row>
@@ -3585,7 +3841,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>45881</v>
@@ -3602,15 +3858,18 @@
         </is>
       </c>
       <c r="G95" t="n">
+        <v>93</v>
+      </c>
+      <c r="H95" t="n">
         <v>66</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>-95</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>-95</v>
       </c>
     </row>
@@ -3619,7 +3878,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>45880</v>
@@ -3636,15 +3895,18 @@
         </is>
       </c>
       <c r="G96" t="n">
+        <v>94</v>
+      </c>
+      <c r="H96" t="n">
         <v>190</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>-94</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>-94</v>
       </c>
     </row>
@@ -3653,7 +3915,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>45877</v>
@@ -3670,15 +3932,18 @@
         </is>
       </c>
       <c r="G97" t="n">
+        <v>95</v>
+      </c>
+      <c r="H97" t="n">
         <v>67</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>-90</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>-90</v>
       </c>
     </row>
@@ -3687,7 +3952,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>45876</v>
@@ -3704,15 +3969,18 @@
         </is>
       </c>
       <c r="G98" t="n">
+        <v>96</v>
+      </c>
+      <c r="H98" t="n">
         <v>68</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>-88</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>-88</v>
       </c>
     </row>
@@ -3721,7 +3989,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>45875</v>
@@ -3738,15 +4006,18 @@
         </is>
       </c>
       <c r="G99" t="n">
+        <v>97</v>
+      </c>
+      <c r="H99" t="n">
         <v>69</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>-82</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>-82</v>
       </c>
     </row>
@@ -3755,7 +4026,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>45874</v>
@@ -3772,15 +4043,18 @@
         </is>
       </c>
       <c r="G100" t="n">
+        <v>98</v>
+      </c>
+      <c r="H100" t="n">
         <v>191</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>-77</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>-77</v>
       </c>
     </row>
@@ -3789,7 +4063,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>45873</v>
@@ -3806,15 +4080,18 @@
         </is>
       </c>
       <c r="G101" t="n">
+        <v>99</v>
+      </c>
+      <c r="H101" t="n">
         <v>192</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>-79</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>-79</v>
       </c>
     </row>
@@ -3823,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>45870</v>
@@ -3840,15 +4117,18 @@
         </is>
       </c>
       <c r="G102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
         <v>193</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>-76</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>-76</v>
       </c>
     </row>
@@ -3857,7 +4137,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>45869</v>
@@ -3874,15 +4154,18 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>101</v>
+      </c>
+      <c r="H103" t="n">
         <v>70</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>-74</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>-74</v>
       </c>
     </row>
@@ -3891,7 +4174,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>45868</v>
@@ -3908,15 +4191,18 @@
         </is>
       </c>
       <c r="G104" t="n">
+        <v>102</v>
+      </c>
+      <c r="H104" t="n">
         <v>71</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>-68</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>-68</v>
       </c>
     </row>
@@ -3925,7 +4211,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>45867</v>
@@ -3942,15 +4228,18 @@
         </is>
       </c>
       <c r="G105" t="n">
+        <v>103</v>
+      </c>
+      <c r="H105" t="n">
         <v>72</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>-65</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>-65</v>
       </c>
     </row>
@@ -3959,7 +4248,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>45866</v>
@@ -3976,15 +4265,18 @@
         </is>
       </c>
       <c r="G106" t="n">
+        <v>104</v>
+      </c>
+      <c r="H106" t="n">
         <v>73</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>-62</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>-62</v>
       </c>
     </row>
@@ -3993,7 +4285,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>45863</v>
@@ -4010,15 +4302,18 @@
         </is>
       </c>
       <c r="G107" t="n">
+        <v>105</v>
+      </c>
+      <c r="H107" t="n">
         <v>74</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>-62</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>-62</v>
       </c>
     </row>
@@ -4027,7 +4322,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>45862</v>
@@ -4044,15 +4339,18 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>106</v>
+      </c>
+      <c r="H108" t="n">
         <v>75</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>-61</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -4061,7 +4359,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>45861</v>
@@ -4078,15 +4376,18 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>107</v>
+      </c>
+      <c r="H109" t="n">
         <v>76</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>-66</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>-63</v>
       </c>
     </row>
@@ -4095,7 +4396,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>45860</v>
@@ -4112,15 +4413,18 @@
         </is>
       </c>
       <c r="G110" t="n">
+        <v>108</v>
+      </c>
+      <c r="H110" t="n">
         <v>77</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>-63</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>-63</v>
       </c>
     </row>
@@ -4129,7 +4433,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>45859</v>
@@ -4146,15 +4450,18 @@
         </is>
       </c>
       <c r="G111" t="n">
+        <v>109</v>
+      </c>
+      <c r="H111" t="n">
         <v>78</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>-61</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -4163,7 +4470,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>45856</v>
@@ -4180,15 +4487,18 @@
         </is>
       </c>
       <c r="G112" t="n">
+        <v>110</v>
+      </c>
+      <c r="H112" t="n">
         <v>79</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
         <v>-56</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>-56</v>
       </c>
     </row>
@@ -4197,7 +4507,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>45855</v>
@@ -4214,15 +4524,18 @@
         </is>
       </c>
       <c r="G113" t="n">
+        <v>111</v>
+      </c>
+      <c r="H113" t="n">
         <v>80</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
         <v>-55</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>-55</v>
       </c>
     </row>
@@ -4231,7 +4544,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>45854</v>
@@ -4248,15 +4561,18 @@
         </is>
       </c>
       <c r="G114" t="n">
+        <v>112</v>
+      </c>
+      <c r="H114" t="n">
         <v>81</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>-56</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>-56</v>
       </c>
     </row>
@@ -4265,7 +4581,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>45853</v>
@@ -4282,15 +4598,18 @@
         </is>
       </c>
       <c r="G115" t="n">
+        <v>113</v>
+      </c>
+      <c r="H115" t="n">
         <v>82</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>-57</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>-57</v>
       </c>
     </row>
@@ -4299,7 +4618,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>45852</v>
@@ -4316,15 +4635,18 @@
         </is>
       </c>
       <c r="G116" t="n">
+        <v>114</v>
+      </c>
+      <c r="H116" t="n">
         <v>83</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>-57</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>-57</v>
       </c>
     </row>
@@ -4333,7 +4655,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>45849</v>
@@ -4350,15 +4672,18 @@
         </is>
       </c>
       <c r="G117" t="n">
+        <v>115</v>
+      </c>
+      <c r="H117" t="n">
         <v>194</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
         <v>-63</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -4367,7 +4692,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>45848</v>
@@ -4384,15 +4709,18 @@
         </is>
       </c>
       <c r="G118" t="n">
+        <v>116</v>
+      </c>
+      <c r="H118" t="n">
         <v>84</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
         <v>-63</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>-63</v>
       </c>
     </row>
@@ -4401,7 +4729,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>45847</v>
@@ -4418,15 +4746,18 @@
         </is>
       </c>
       <c r="G119" t="n">
+        <v>117</v>
+      </c>
+      <c r="H119" t="n">
         <v>195</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>-60</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>-60</v>
       </c>
     </row>
@@ -4435,7 +4766,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>45846</v>
@@ -4452,15 +4783,18 @@
         </is>
       </c>
       <c r="G120" t="n">
+        <v>118</v>
+      </c>
+      <c r="H120" t="n">
         <v>196</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>-61</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -4469,7 +4803,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>45845</v>
@@ -4486,15 +4820,18 @@
         </is>
       </c>
       <c r="G121" t="n">
+        <v>119</v>
+      </c>
+      <c r="H121" t="n">
         <v>85</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>-57</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>-57</v>
       </c>
     </row>
@@ -4503,7 +4840,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>45841</v>
@@ -4520,15 +4857,18 @@
         </is>
       </c>
       <c r="G122" t="n">
+        <v>120</v>
+      </c>
+      <c r="H122" t="n">
         <v>197</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
         <v>-54</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>-53</v>
       </c>
     </row>
@@ -4537,7 +4877,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>45840</v>
@@ -4554,15 +4894,18 @@
         </is>
       </c>
       <c r="G123" t="n">
+        <v>121</v>
+      </c>
+      <c r="H123" t="n">
         <v>86</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>-51</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>-51</v>
       </c>
     </row>
@@ -4571,7 +4914,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>45839</v>
@@ -4588,15 +4931,18 @@
         </is>
       </c>
       <c r="G124" t="n">
+        <v>122</v>
+      </c>
+      <c r="H124" t="n">
         <v>87</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>-49</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>-49</v>
       </c>
     </row>
@@ -4605,7 +4951,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>45838</v>
@@ -4622,15 +4968,18 @@
         </is>
       </c>
       <c r="G125" t="n">
+        <v>123</v>
+      </c>
+      <c r="H125" t="n">
         <v>88</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>-46</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>-46</v>
       </c>
     </row>
@@ -4639,7 +4988,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>45835</v>
@@ -4656,15 +5005,18 @@
         </is>
       </c>
       <c r="G126" t="n">
+        <v>124</v>
+      </c>
+      <c r="H126" t="n">
         <v>89</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>-39</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>-39</v>
       </c>
     </row>
@@ -4673,7 +5025,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>45834</v>
@@ -4690,15 +5042,18 @@
         </is>
       </c>
       <c r="G127" t="n">
+        <v>125</v>
+      </c>
+      <c r="H127" t="n">
         <v>90</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
         <v>-32</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>-32</v>
       </c>
     </row>
@@ -4707,7 +5062,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>45833</v>
@@ -4724,15 +5079,18 @@
         </is>
       </c>
       <c r="G128" t="n">
+        <v>126</v>
+      </c>
+      <c r="H128" t="n">
         <v>91</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
         <v>-31</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>-31</v>
       </c>
     </row>
@@ -4741,7 +5099,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>45832</v>
@@ -4758,15 +5116,18 @@
         </is>
       </c>
       <c r="G129" t="n">
+        <v>127</v>
+      </c>
+      <c r="H129" t="n">
         <v>92</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>-34</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>-34</v>
       </c>
     </row>
@@ -4775,7 +5136,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>45831</v>
@@ -4792,15 +5153,18 @@
         </is>
       </c>
       <c r="G130" t="n">
+        <v>128</v>
+      </c>
+      <c r="H130" t="n">
         <v>93</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>-32</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>-32</v>
       </c>
     </row>
@@ -4809,7 +5173,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>45827</v>
@@ -4826,15 +5190,18 @@
         </is>
       </c>
       <c r="G131" t="n">
+        <v>129</v>
+      </c>
+      <c r="H131" t="n">
         <v>94</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
         <v>-35</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>-29</v>
       </c>
     </row>
@@ -4843,7 +5210,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>45826</v>
@@ -4860,15 +5227,18 @@
         </is>
       </c>
       <c r="G132" t="n">
+        <v>130</v>
+      </c>
+      <c r="H132" t="n">
         <v>95</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
         <v>-29</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>-29</v>
       </c>
     </row>
@@ -4877,7 +5247,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>45825</v>
@@ -4894,15 +5264,18 @@
         </is>
       </c>
       <c r="G133" t="n">
+        <v>131</v>
+      </c>
+      <c r="H133" t="n">
         <v>96</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
         <v>-26</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>-26</v>
       </c>
     </row>
@@ -4911,7 +5284,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>45824</v>
@@ -4928,15 +5301,18 @@
         </is>
       </c>
       <c r="G134" t="n">
+        <v>132</v>
+      </c>
+      <c r="H134" t="n">
         <v>97</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
         <v>-31</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>-33</v>
       </c>
     </row>
@@ -4945,7 +5321,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>45821</v>
@@ -4962,15 +5338,18 @@
         </is>
       </c>
       <c r="G135" t="n">
+        <v>133</v>
+      </c>
+      <c r="H135" t="n">
         <v>98</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
         <v>-33</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>-33</v>
       </c>
     </row>
@@ -4979,7 +5358,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>45820</v>
@@ -4996,15 +5375,18 @@
         </is>
       </c>
       <c r="G136" t="n">
+        <v>134</v>
+      </c>
+      <c r="H136" t="n">
         <v>99</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>-35</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>-35</v>
       </c>
     </row>
@@ -5013,7 +5395,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>45819</v>
@@ -5030,15 +5412,18 @@
         </is>
       </c>
       <c r="G137" t="n">
+        <v>135</v>
+      </c>
+      <c r="H137" t="n">
         <v>100</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
         <v>-37</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>-37</v>
       </c>
     </row>
@@ -5047,7 +5432,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>45818</v>
@@ -5064,15 +5449,18 @@
         </is>
       </c>
       <c r="G138" t="n">
+        <v>136</v>
+      </c>
+      <c r="H138" t="n">
         <v>101</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
         <v>-37</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>-37</v>
       </c>
     </row>
@@ -5081,7 +5469,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>45817</v>
@@ -5098,15 +5486,18 @@
         </is>
       </c>
       <c r="G139" t="n">
+        <v>137</v>
+      </c>
+      <c r="H139" t="n">
         <v>102</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>-36</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>-36</v>
       </c>
     </row>
@@ -5115,7 +5506,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>45814</v>
@@ -5132,15 +5523,18 @@
         </is>
       </c>
       <c r="G140" t="n">
+        <v>138</v>
+      </c>
+      <c r="H140" t="n">
         <v>103</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
         <v>-39</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>-38</v>
       </c>
     </row>
@@ -5149,7 +5543,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>45812</v>
@@ -5166,15 +5560,18 @@
         </is>
       </c>
       <c r="G141" t="n">
+        <v>139</v>
+      </c>
+      <c r="H141" t="n">
         <v>104</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
         <v>-39</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>-39</v>
       </c>
     </row>
@@ -5183,7 +5580,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>45811</v>
@@ -5200,15 +5597,18 @@
         </is>
       </c>
       <c r="G142" t="n">
+        <v>140</v>
+      </c>
+      <c r="H142" t="n">
         <v>105</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
         <v>-36</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>-36</v>
       </c>
     </row>
@@ -5217,7 +5617,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>45810</v>
@@ -5234,15 +5634,18 @@
         </is>
       </c>
       <c r="G143" t="n">
+        <v>141</v>
+      </c>
+      <c r="H143" t="n">
         <v>106</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>-30</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -5251,7 +5654,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>45807</v>
@@ -5268,15 +5671,18 @@
         </is>
       </c>
       <c r="G144" t="n">
+        <v>142</v>
+      </c>
+      <c r="H144" t="n">
         <v>107</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
         <v>-28</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>-28</v>
       </c>
     </row>
@@ -5285,7 +5691,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>45806</v>
@@ -5302,15 +5708,18 @@
         </is>
       </c>
       <c r="G145" t="n">
+        <v>143</v>
+      </c>
+      <c r="H145" t="n">
         <v>108</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
         <v>-32</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>-32</v>
       </c>
     </row>
@@ -5319,7 +5728,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>45805</v>
@@ -5336,15 +5745,18 @@
         </is>
       </c>
       <c r="G146" t="n">
+        <v>144</v>
+      </c>
+      <c r="H146" t="n">
         <v>109</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
         <v>-30</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -5353,7 +5765,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>45804</v>
@@ -5370,15 +5782,18 @@
         </is>
       </c>
       <c r="G147" t="n">
+        <v>145</v>
+      </c>
+      <c r="H147" t="n">
         <v>110</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
         <v>-28</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>-28</v>
       </c>
     </row>
@@ -5387,7 +5802,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>45800</v>
@@ -5404,15 +5819,18 @@
         </is>
       </c>
       <c r="G148" t="n">
+        <v>146</v>
+      </c>
+      <c r="H148" t="n">
         <v>111</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
         <v>-27</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -5421,7 +5839,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>45799</v>
@@ -5438,15 +5856,18 @@
         </is>
       </c>
       <c r="G149" t="n">
+        <v>147</v>
+      </c>
+      <c r="H149" t="n">
         <v>112</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
         <v>-31</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>-31</v>
       </c>
     </row>
@@ -5455,7 +5876,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>45798</v>
@@ -5472,15 +5893,18 @@
         </is>
       </c>
       <c r="G150" t="n">
+        <v>148</v>
+      </c>
+      <c r="H150" t="n">
         <v>113</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
         <v>-25</v>
       </c>
-      <c r="J150" t="n">
+      <c r="K150" t="n">
         <v>-25</v>
       </c>
     </row>
@@ -5489,7 +5913,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>45797</v>
@@ -5506,15 +5930,18 @@
         </is>
       </c>
       <c r="G151" t="n">
+        <v>149</v>
+      </c>
+      <c r="H151" t="n">
         <v>114</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
         <v>-18</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>-18</v>
       </c>
     </row>
@@ -5523,7 +5950,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>45796</v>
@@ -5540,15 +5967,18 @@
         </is>
       </c>
       <c r="G152" t="n">
+        <v>150</v>
+      </c>
+      <c r="H152" t="n">
         <v>115</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
         <v>-15</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -5557,7 +5987,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>45793</v>
@@ -5574,15 +6004,18 @@
         </is>
       </c>
       <c r="G153" t="n">
+        <v>151</v>
+      </c>
+      <c r="H153" t="n">
         <v>116</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
         <v>-13</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -5591,7 +6024,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>45792</v>
@@ -5608,15 +6041,18 @@
         </is>
       </c>
       <c r="G154" t="n">
+        <v>152</v>
+      </c>
+      <c r="H154" t="n">
         <v>117</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
         <v>-14</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -5625,7 +6061,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>45791</v>
@@ -5642,15 +6078,18 @@
         </is>
       </c>
       <c r="G155" t="n">
+        <v>153</v>
+      </c>
+      <c r="H155" t="n">
         <v>118</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
         <v>-12</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -5659,7 +6098,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>45790</v>
@@ -5676,15 +6115,18 @@
         </is>
       </c>
       <c r="G156" t="n">
+        <v>154</v>
+      </c>
+      <c r="H156" t="n">
         <v>119</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
         <v>-8</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -5693,7 +6135,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>45789</v>
@@ -5710,15 +6152,18 @@
         </is>
       </c>
       <c r="G157" t="n">
+        <v>155</v>
+      </c>
+      <c r="H157" t="n">
         <v>120</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>-3</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -5727,7 +6172,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>45786</v>
@@ -5744,15 +6189,18 @@
         </is>
       </c>
       <c r="G158" t="n">
+        <v>156</v>
+      </c>
+      <c r="H158" t="n">
         <v>121</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5761,7 +6209,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>45785</v>
@@ -5778,15 +6226,18 @@
         </is>
       </c>
       <c r="G159" t="n">
+        <v>157</v>
+      </c>
+      <c r="H159" t="n">
         <v>122</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
         <v>-12</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -5795,7 +6246,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>45784</v>
@@ -5812,15 +6263,18 @@
         </is>
       </c>
       <c r="G160" t="n">
+        <v>158</v>
+      </c>
+      <c r="H160" t="n">
         <v>123</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
         <v>-9</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -5829,7 +6283,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>45783</v>
@@ -5846,15 +6300,18 @@
         </is>
       </c>
       <c r="G161" t="n">
+        <v>159</v>
+      </c>
+      <c r="H161" t="n">
         <v>124</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
         <v>-13</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -5863,7 +6320,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>45782</v>
@@ -5880,15 +6337,18 @@
         </is>
       </c>
       <c r="G162" t="n">
+        <v>160</v>
+      </c>
+      <c r="H162" t="n">
         <v>125</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
         <v>-15</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -5897,7 +6357,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>45779</v>
@@ -5914,15 +6374,18 @@
         </is>
       </c>
       <c r="G163" t="n">
+        <v>161</v>
+      </c>
+      <c r="H163" t="n">
         <v>126</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
         <v>-27</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -5931,7 +6394,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>45778</v>
@@ -5948,15 +6411,18 @@
         </is>
       </c>
       <c r="G164" t="n">
+        <v>162</v>
+      </c>
+      <c r="H164" t="n">
         <v>127</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>-29</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>-29</v>
       </c>
     </row>
@@ -5965,7 +6431,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>45777</v>
@@ -5982,15 +6448,18 @@
         </is>
       </c>
       <c r="G165" t="n">
+        <v>163</v>
+      </c>
+      <c r="H165" t="n">
         <v>128</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>-24</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>-24</v>
       </c>
     </row>
@@ -5999,7 +6468,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>45776</v>
@@ -6016,15 +6485,18 @@
         </is>
       </c>
       <c r="G166" t="n">
+        <v>164</v>
+      </c>
+      <c r="H166" t="n">
         <v>129</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>-19</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>-19</v>
       </c>
     </row>
@@ -6033,7 +6505,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>45775</v>
@@ -6050,15 +6522,18 @@
         </is>
       </c>
       <c r="G167" t="n">
+        <v>165</v>
+      </c>
+      <c r="H167" t="n">
         <v>130</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
         <v>-15</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>-21</v>
       </c>
     </row>
@@ -6067,7 +6542,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>45771</v>
@@ -6084,15 +6559,18 @@
         </is>
       </c>
       <c r="G168" t="n">
+        <v>166</v>
+      </c>
+      <c r="H168" t="n">
         <v>131</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
         <v>-12</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -6101,7 +6579,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>45770</v>
@@ -6118,15 +6596,18 @@
         </is>
       </c>
       <c r="G169" t="n">
+        <v>167</v>
+      </c>
+      <c r="H169" t="n">
         <v>132</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
         <v>-11</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -6135,7 +6616,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>45769</v>
@@ -6152,15 +6633,18 @@
         </is>
       </c>
       <c r="G170" t="n">
+        <v>168</v>
+      </c>
+      <c r="H170" t="n">
         <v>133</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6169,7 +6653,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>45768</v>
@@ -6186,15 +6670,18 @@
         </is>
       </c>
       <c r="G171" t="n">
+        <v>169</v>
+      </c>
+      <c r="H171" t="n">
         <v>134</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
         <v>-8</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -6203,7 +6690,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>45765</v>
@@ -6220,15 +6707,18 @@
         </is>
       </c>
       <c r="G172" t="n">
+        <v>170</v>
+      </c>
+      <c r="H172" t="n">
         <v>135</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
         <v>-20</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -6237,7 +6727,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>45764</v>
@@ -6254,15 +6744,18 @@
         </is>
       </c>
       <c r="G173" t="n">
+        <v>171</v>
+      </c>
+      <c r="H173" t="n">
         <v>136</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
         <v>-17</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -6271,7 +6764,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>45763</v>
@@ -6288,15 +6781,18 @@
         </is>
       </c>
       <c r="G174" t="n">
+        <v>172</v>
+      </c>
+      <c r="H174" t="n">
         <v>198</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
         <v>-8</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -6305,7 +6801,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>45762</v>
@@ -6322,15 +6818,18 @@
         </is>
       </c>
       <c r="G175" t="n">
+        <v>173</v>
+      </c>
+      <c r="H175" t="n">
         <v>137</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
         <v>-6</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -6339,7 +6838,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>45761</v>
@@ -6356,15 +6855,18 @@
         </is>
       </c>
       <c r="G176" t="n">
+        <v>174</v>
+      </c>
+      <c r="H176" t="n">
         <v>199</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6373,7 +6875,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>45758</v>
@@ -6390,15 +6892,18 @@
         </is>
       </c>
       <c r="G177" t="n">
+        <v>175</v>
+      </c>
+      <c r="H177" t="n">
         <v>138</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
         <v>-8</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -6407,7 +6912,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>45757</v>
@@ -6424,15 +6929,18 @@
         </is>
       </c>
       <c r="G178" t="n">
+        <v>176</v>
+      </c>
+      <c r="H178" t="n">
         <v>200</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
         <v>-5</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -6441,7 +6949,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>45756</v>
@@ -6458,15 +6966,18 @@
         </is>
       </c>
       <c r="G179" t="n">
+        <v>177</v>
+      </c>
+      <c r="H179" t="n">
         <v>139</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
         <v>-4</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -6475,7 +6986,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>45755</v>
@@ -6492,15 +7003,18 @@
         </is>
       </c>
       <c r="G180" t="n">
+        <v>178</v>
+      </c>
+      <c r="H180" t="n">
         <v>140</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
         <v>1</v>
       </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,7 +7023,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>45754</v>
@@ -6526,15 +7040,18 @@
         </is>
       </c>
       <c r="G181" t="n">
+        <v>179</v>
+      </c>
+      <c r="H181" t="n">
         <v>201</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
         <v>4</v>
       </c>
-      <c r="J181" t="n">
+      <c r="K181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6543,7 +7060,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>45751</v>
@@ -6560,15 +7077,18 @@
         </is>
       </c>
       <c r="G182" t="n">
+        <v>180</v>
+      </c>
+      <c r="H182" t="n">
         <v>141</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
         <v>4</v>
       </c>
-      <c r="J182" t="n">
+      <c r="K182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6577,7 +7097,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>45750</v>
@@ -6594,15 +7114,18 @@
         </is>
       </c>
       <c r="G183" t="n">
+        <v>181</v>
+      </c>
+      <c r="H183" t="n">
         <v>142</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
         <v>9</v>
       </c>
-      <c r="J183" t="n">
+      <c r="K183" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6611,7 +7134,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>45749</v>
@@ -6628,15 +7151,18 @@
         </is>
       </c>
       <c r="G184" t="n">
+        <v>182</v>
+      </c>
+      <c r="H184" t="n">
         <v>143</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
         <v>5</v>
       </c>
-      <c r="J184" t="n">
+      <c r="K184" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6645,7 +7171,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>45748</v>
@@ -6662,15 +7188,18 @@
         </is>
       </c>
       <c r="G185" t="n">
+        <v>183</v>
+      </c>
+      <c r="H185" t="n">
         <v>144</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
         <v>10</v>
       </c>
-      <c r="J185" t="n">
+      <c r="K185" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6679,7 +7208,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>45747</v>
@@ -6696,15 +7225,18 @@
         </is>
       </c>
       <c r="G186" t="n">
+        <v>184</v>
+      </c>
+      <c r="H186" t="n">
         <v>145</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
         <v>10</v>
       </c>
-      <c r="J186" t="n">
+      <c r="K186" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6713,7 +7245,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>45744</v>
@@ -6730,15 +7262,18 @@
         </is>
       </c>
       <c r="G187" t="n">
+        <v>185</v>
+      </c>
+      <c r="H187" t="n">
         <v>146</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
         <v>22</v>
       </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
         <v>22</v>
       </c>
     </row>
@@ -6747,7 +7282,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>45743</v>
@@ -6764,15 +7299,18 @@
         </is>
       </c>
       <c r="G188" t="n">
+        <v>186</v>
+      </c>
+      <c r="H188" t="n">
         <v>147</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
         <v>21</v>
       </c>
-      <c r="J188" t="n">
+      <c r="K188" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6781,7 +7319,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>45742</v>
@@ -6798,15 +7336,18 @@
         </is>
       </c>
       <c r="G189" t="n">
+        <v>187</v>
+      </c>
+      <c r="H189" t="n">
         <v>148</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>26</v>
       </c>
-      <c r="J189" t="n">
+      <c r="K189" t="n">
         <v>26</v>
       </c>
     </row>
@@ -6815,7 +7356,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>45741</v>
@@ -6832,15 +7373,18 @@
         </is>
       </c>
       <c r="G190" t="n">
+        <v>188</v>
+      </c>
+      <c r="H190" t="n">
         <v>149</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
         <v>26</v>
       </c>
-      <c r="J190" t="n">
+      <c r="K190" t="n">
         <v>26</v>
       </c>
     </row>
@@ -6849,7 +7393,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>45740</v>
@@ -6866,15 +7410,18 @@
         </is>
       </c>
       <c r="G191" t="n">
+        <v>189</v>
+      </c>
+      <c r="H191" t="n">
         <v>150</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>30</v>
       </c>
-      <c r="J191" t="n">
+      <c r="K191" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6883,7 +7430,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>45737</v>
@@ -6900,15 +7447,18 @@
         </is>
       </c>
       <c r="G192" t="n">
+        <v>190</v>
+      </c>
+      <c r="H192" t="n">
         <v>151</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
         <v>31</v>
       </c>
-      <c r="J192" t="n">
+      <c r="K192" t="n">
         <v>31</v>
       </c>
     </row>
@@ -6917,7 +7467,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>45736</v>
@@ -6934,15 +7484,18 @@
         </is>
       </c>
       <c r="G193" t="n">
+        <v>191</v>
+      </c>
+      <c r="H193" t="n">
         <v>152</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
         <v>34</v>
       </c>
-      <c r="J193" t="n">
+      <c r="K193" t="n">
         <v>34</v>
       </c>
     </row>
@@ -6951,7 +7504,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>45735</v>
@@ -6968,15 +7521,18 @@
         </is>
       </c>
       <c r="G194" t="n">
+        <v>192</v>
+      </c>
+      <c r="H194" t="n">
         <v>153</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
         <v>35</v>
       </c>
-      <c r="J194" t="n">
+      <c r="K194" t="n">
         <v>35</v>
       </c>
     </row>
@@ -6985,7 +7541,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>45734</v>
@@ -7002,15 +7558,18 @@
         </is>
       </c>
       <c r="G195" t="n">
+        <v>193</v>
+      </c>
+      <c r="H195" t="n">
         <v>154</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
         <v>34</v>
       </c>
-      <c r="J195" t="n">
+      <c r="K195" t="n">
         <v>34</v>
       </c>
     </row>
@@ -7019,7 +7578,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>45733</v>
@@ -7036,15 +7595,18 @@
         </is>
       </c>
       <c r="G196" t="n">
+        <v>194</v>
+      </c>
+      <c r="H196" t="n">
         <v>155</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
         <v>39</v>
       </c>
-      <c r="J196" t="n">
+      <c r="K196" t="n">
         <v>39</v>
       </c>
     </row>
@@ -7053,7 +7615,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>45730</v>
@@ -7070,15 +7632,18 @@
         </is>
       </c>
       <c r="G197" t="n">
+        <v>195</v>
+      </c>
+      <c r="H197" t="n">
         <v>156</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
         <v>39</v>
       </c>
-      <c r="J197" t="n">
+      <c r="K197" t="n">
         <v>39</v>
       </c>
     </row>
@@ -7087,7 +7652,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>45729</v>
@@ -7104,15 +7669,18 @@
         </is>
       </c>
       <c r="G198" t="n">
+        <v>196</v>
+      </c>
+      <c r="H198" t="n">
         <v>157</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
         <v>37</v>
       </c>
-      <c r="J198" t="n">
+      <c r="K198" t="n">
         <v>37</v>
       </c>
     </row>
@@ -7121,7 +7689,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>45728</v>
@@ -7138,15 +7706,18 @@
         </is>
       </c>
       <c r="G199" t="n">
+        <v>197</v>
+      </c>
+      <c r="H199" t="n">
         <v>158</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
         <v>46</v>
       </c>
-      <c r="J199" t="n">
+      <c r="K199" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7155,7 +7726,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>45727</v>
@@ -7172,15 +7743,18 @@
         </is>
       </c>
       <c r="G200" t="n">
+        <v>198</v>
+      </c>
+      <c r="H200" t="n">
         <v>159</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
         <v>44</v>
       </c>
-      <c r="J200" t="n">
+      <c r="K200" t="n">
         <v>44</v>
       </c>
     </row>
@@ -7189,7 +7763,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>45726</v>
@@ -7206,15 +7780,18 @@
         </is>
       </c>
       <c r="G201" t="n">
+        <v>199</v>
+      </c>
+      <c r="H201" t="n">
         <v>160</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
         <v>57</v>
       </c>
-      <c r="J201" t="n">
+      <c r="K201" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7223,7 +7800,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>45723</v>
@@ -7240,15 +7817,18 @@
         </is>
       </c>
       <c r="G202" t="n">
+        <v>200</v>
+      </c>
+      <c r="H202" t="n">
         <v>161</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
         <v>68</v>
       </c>
-      <c r="J202" t="n">
+      <c r="K202" t="n">
         <v>68</v>
       </c>
     </row>
@@ -7257,7 +7837,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>45722</v>
@@ -7274,13 +7854,16 @@
         </is>
       </c>
       <c r="G203" t="n">
+        <v>201</v>
+      </c>
+      <c r="H203" t="n">
         <v>162</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
         <v>70</v>
       </c>
     </row>
